--- a/rebar_file.xlsx
+++ b/rebar_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitu1\Desktop\Coding\mahdis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03BB5A3-4B89-4C56-A188-BD9753C82947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EDB1F9-C357-406D-B755-08E5B4A66FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24900" yWindow="1095" windowWidth="18780" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -660,7 +660,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -853,7 +853,7 @@
         <v>54</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>57</v>
